--- a/Arrangement/2022.07.27.xlsx
+++ b/Arrangement/2022.07.27.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yongsoo Kwon\Desktop\Plitche\tuticha_study\Arrangement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\developCha\Spring_Study\Arrangement\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16980" windowHeight="11385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="9108"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,23 +446,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
@@ -482,7 +482,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -493,14 +493,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" t="s">
@@ -510,25 +510,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E8" s="1"/>
       <c r="F8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E9" s="1"/>
       <c r="F9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E10" s="1"/>
       <c r="F10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E16" t="s">
         <v>15</v>
       </c>
@@ -542,7 +542,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.4">
       <c r="F17" t="s">
         <v>17</v>
       </c>
@@ -553,32 +553,32 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.4">
       <c r="F18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:8" x14ac:dyDescent="0.4">
       <c r="F19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:8" x14ac:dyDescent="0.4">
       <c r="F20">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:8" x14ac:dyDescent="0.4">
       <c r="F21">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:8" x14ac:dyDescent="0.4">
       <c r="F22">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:8" x14ac:dyDescent="0.4">
       <c r="F23">
         <v>8</v>
       </c>
